--- a/Subjective_at_ECSS2024.xlsx
+++ b/Subjective_at_ECSS2024.xlsx
@@ -1,21 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27820"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\ucloud\RSI Breathing Study\Publications\Poster_ECSS2024_Acute_effects\Acute_SPB_post_RSI_ECSS2024\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A5E76-DDE1-4073-8614-50EF431A03B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>vas1</t>
+  </si>
+  <si>
+    <t>vas2</t>
+  </si>
+  <si>
+    <t>vas3</t>
+  </si>
+  <si>
+    <t>vas4</t>
+  </si>
+  <si>
+    <t>vas5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +88,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +144,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +178,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +213,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,884 +389,672 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>woche</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tag</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>vas1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>vas2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>vas3</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>vas4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>vas5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>96</v>
-      </c>
-      <c r="G2">
-        <v>59</v>
-      </c>
-      <c r="H2">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>83</v>
-      </c>
-      <c r="G3">
-        <v>70</v>
-      </c>
-      <c r="H3">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F4">
-        <v>99</v>
-      </c>
-      <c r="G4">
-        <v>58</v>
-      </c>
-      <c r="H4">
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>76</v>
-      </c>
-      <c r="G5">
-        <v>74</v>
-      </c>
-      <c r="H5">
         <v>60</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F6">
-        <v>78</v>
-      </c>
-      <c r="G6">
-        <v>99</v>
-      </c>
-      <c r="H6">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F7">
-        <v>80</v>
-      </c>
-      <c r="G7">
-        <v>75</v>
-      </c>
-      <c r="H7">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>66</v>
-      </c>
-      <c r="G8">
-        <v>59</v>
-      </c>
-      <c r="H8">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>89</v>
-      </c>
-      <c r="G9">
-        <v>41</v>
-      </c>
-      <c r="H9">
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>41</v>
-      </c>
-      <c r="H11">
         <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>94</v>
-      </c>
-      <c r="G12">
-        <v>65</v>
-      </c>
-      <c r="H12">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>73</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>96</v>
-      </c>
-      <c r="G14">
-        <v>70</v>
-      </c>
-      <c r="H14">
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F15">
-        <v>93</v>
-      </c>
-      <c r="G15">
-        <v>70</v>
-      </c>
-      <c r="H15">
         <v>52</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F16">
-        <v>80</v>
-      </c>
-      <c r="G16">
-        <v>73</v>
-      </c>
-      <c r="H16">
         <v>56</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F17">
-        <v>97</v>
-      </c>
-      <c r="G17">
-        <v>93</v>
-      </c>
-      <c r="H17">
         <v>68</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E18">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F18">
-        <v>90</v>
-      </c>
-      <c r="G18">
-        <v>76</v>
-      </c>
-      <c r="H18">
         <v>51</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E19">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F19">
-        <v>90</v>
-      </c>
-      <c r="G19">
-        <v>77</v>
-      </c>
-      <c r="H19">
         <v>36</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="E20">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F20">
-        <v>94</v>
-      </c>
-      <c r="G20">
-        <v>79</v>
-      </c>
-      <c r="H20">
         <v>59</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>27</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D21">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21">
-        <v>60</v>
-      </c>
-      <c r="H21">
         <v>17</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F22">
-        <v>88</v>
-      </c>
-      <c r="G22">
-        <v>76</v>
-      </c>
-      <c r="H22">
         <v>29</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>29</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F23">
-        <v>95</v>
-      </c>
-      <c r="G23">
-        <v>86</v>
-      </c>
-      <c r="H23">
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F24">
-        <v>99</v>
-      </c>
-      <c r="G24">
-        <v>97</v>
-      </c>
-      <c r="H24">
         <v>71</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>31</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E25">
         <v>81</v>
       </c>
       <c r="F25">
-        <v>98</v>
-      </c>
-      <c r="G25">
-        <v>81</v>
-      </c>
-      <c r="H25">
         <v>28</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>32</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26">
-        <v>98</v>
-      </c>
-      <c r="H26">
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>33</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27">
-        <v>95</v>
-      </c>
-      <c r="H27">
         <v>94</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>34</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>55</v>
+      </c>
+      <c r="F28">
         <v>29</v>
       </c>
-      <c r="E28">
-        <v>46</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28">
-        <v>55</v>
-      </c>
-      <c r="H28">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>35</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F29">
-        <v>94</v>
-      </c>
-      <c r="G29">
-        <v>63</v>
-      </c>
-      <c r="H29">
         <v>12</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>36</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E30">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F30">
-        <v>74</v>
-      </c>
-      <c r="G30">
-        <v>68</v>
-      </c>
-      <c r="H30">
         <v>37</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="E31">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F31">
-        <v>74</v>
-      </c>
-      <c r="G31">
-        <v>43</v>
-      </c>
-      <c r="H31">
         <v>17</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F32">
-        <v>70</v>
-      </c>
-      <c r="G32">
-        <v>56</v>
-      </c>
-      <c r="H32">
         <v>23</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E33">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F33">
-        <v>92</v>
-      </c>
-      <c r="G33">
-        <v>68</v>
-      </c>
-      <c r="H33">
         <v>19</v>
       </c>
     </row>
